--- a/biology/Médecine/Anthem_(entreprise)/Anthem_(entreprise).xlsx
+++ b/biology/Médecine/Anthem_(entreprise)/Anthem_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Anthem, anciennement Wellpoint, est une entreprise américaine d'assurance maladie et le plus grand membre de la Blue Cross Blue Shield Association (en).
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthem est issue de la fusion entre WellPoint Health Networks et Anthem Insurance Company en 2004, l'entreprise a ensuite pris pour nom Wellpoint jusqu'en 2014, où elle reprit son nom actuel.
-En juillet 2015, Anthem lance une offre d'achat sur Cigna pour 54,2 milliards de dollars[3],[4]. En juillet 2016, l'opération est bloquée par les autorités de la concurrence américaine, au même titre que l'acquisition de Humana par Aetna[5].
+En juillet 2015, Anthem lance une offre d'achat sur Cigna pour 54,2 milliards de dollars,. En juillet 2016, l'opération est bloquée par les autorités de la concurrence américaine, au même titre que l'acquisition de Humana par Aetna.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des principaux actionnaires au 5 novembre 2019[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des principaux actionnaires au 5 novembre 2019.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Logo</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Logo de Wellpoint jusqu'en 2014.
